--- a/金融资料/九斗数据/04/04.xlsx
+++ b/金融资料/九斗数据/04/04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="11355"/>
+    <workbookView windowWidth="18600" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <r>
       <rPr>
@@ -112,6 +112,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -170,6 +177,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2. </t>
     </r>
     <r>
@@ -245,6 +259,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>4.</t>
     </r>
     <r>
@@ -266,6 +287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>5.</t>
     </r>
     <r>
@@ -313,6 +340,15 @@
       </rPr>
       <t>、任天堂和微软在游戏行业的商业模式。</t>
     </r>
+  </si>
+  <si>
+    <t>SONY、任天堂、微软属于游戏主机制造商和游戏开发商。</t>
+  </si>
+  <si>
+    <t>EA、暴雪属于游戏开发商</t>
+  </si>
+  <si>
+    <t>盛大、腾讯、网易属于游戏平台</t>
   </si>
   <si>
     <t>EA：
@@ -1133,23 +1169,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1239,15 +1268,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,9 +1284,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1275,6 +1328,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1283,97 +1389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1382,6 +1397,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1396,27 +1418,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1437,7 +1445,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,49 +1583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,85 +1607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,37 +1619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,17 +1633,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,26 +1678,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1700,17 +1702,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1730,184 +1726,183 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2309,10 +2304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2328,330 +2323,323 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="4:4">
-      <c r="D1" s="5"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="3" ht="15.75" spans="2:8">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="2:8">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="2:8">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" ht="18.5" customHeight="1" spans="2:8">
-      <c r="B9" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="2:8">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="9" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="2:8">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" ht="117" customHeight="1" spans="2:8">
-      <c r="B12" s="11" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" ht="117" customHeight="1" spans="2:8">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="9" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" ht="277" customHeight="1" spans="2:8">
-      <c r="B14" s="11" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" ht="277" customHeight="1" spans="2:8">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="9" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" ht="117" customHeight="1" spans="2:8">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="117" customHeight="1" spans="2:8">
+      <c r="B15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" ht="140" customHeight="1" spans="2:8">
-      <c r="B18" s="11" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:8">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" ht="15" customHeight="1"/>
-    <row r="21" spans="2:5">
-      <c r="B21" s="14" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:8">
+      <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="15" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:8">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="15" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:8">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" customHeight="1" spans="2:8">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:8">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:8">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" ht="147" customHeight="1" spans="2:8">
+      <c r="B24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="9" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="9" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="9" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="9" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="9" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="9:9">
-      <c r="I38" s="1"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="9" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="9" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1">
-        <v>2</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="1">
-        <v>4</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="A48"/>
+      <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -2660,12 +2648,8 @@
       <c r="H48"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="1">
-        <v>5</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="A49"/>
+      <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -2675,10 +2659,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>6</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -2689,10 +2673,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>7</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -2703,10 +2687,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>8</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -2717,10 +2701,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>9</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -2729,100 +2713,173 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="23"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="9" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>5</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>6</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>7</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="14" t="s">
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>8</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="9" t="s">
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>9</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="22"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="1"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="9" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="9:10">
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="9:10">
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B16:H16"/>
+  <mergeCells count="8">
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B8:H9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" display="https://www.joudou.com/merger/68035.html"/>
-    <hyperlink ref="B23" r:id="rId2" display="https://www.joudou.com/merger/68140.html"/>
+    <hyperlink ref="B27" r:id="rId1" display="https://www.joudou.com/merger/68035.html"/>
+    <hyperlink ref="B28" r:id="rId2" display="https://www.joudou.com/merger/68140.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2848,7 +2905,7 @@
   <sheetData>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>3.2</v>
@@ -2856,10 +2913,10 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>2015</v>
@@ -2927,7 +2984,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>4.33</v>
@@ -2938,7 +2995,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F18">
         <f>351389.71*10^6</f>
@@ -2951,7 +3008,7 @@
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:7">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <f>F18*F17</f>
@@ -2964,7 +3021,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <f>(178841+308687-160212)*10^6</f>
@@ -2997,16 +3054,16 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -3026,22 +3083,22 @@
         <v>347363000000</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="3">
+        <v>47</v>
+      </c>
+      <c r="G25" s="2">
         <f>4.33*351389.71*10^6</f>
         <v>1521517444300</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <f>(178841+308687-160212)*10^6</f>
         <v>327316000000</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <f>G25/H25</f>
         <v>4.64846644924171</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>45</v>
+      <c r="J25" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:3">

--- a/金融资料/九斗数据/04/04.xlsx
+++ b/金融资料/九斗数据/04/04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="11355"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <r>
       <rPr>
@@ -112,6 +112,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -170,6 +177,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2. </t>
     </r>
     <r>
@@ -245,6 +259,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>4.</t>
     </r>
     <r>
@@ -266,6 +287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>5.</t>
     </r>
     <r>
@@ -315,14 +342,15 @@
     </r>
   </si>
   <si>
-    <t>EA：
-暴雪：
-盛大：
-腾讯：
-网易：
-SONY：
-任天堂：为游戏而生的公司。
-微软：为了跟索尼抢市场才做Xbox的公司。</t>
+    <t>游戏产业链：游戏分为通用硬件游戏和专有硬件游戏。通用硬件包括：PC端游，网游，手游，这些在中国比较流行，得益于互联网的发展和免费游戏的商业模式，专有硬件包括：任天堂，XBOX，PS系列。国内流行的通用硬件游戏运营模式，用户玩游戏免费，利润来自高阶玩家，免费用户陪高阶玩家玩，巨人《征途》这方面有代表性。专有硬件游戏厂商模式：设计、生产、销售硬件，然后和游戏制作商合作分成制作投资巨大的重量级游戏，然后通过游戏硬件的销量保障游戏的销量。
+EA：游戏发行商，收购工作室制作发行游戏。
+暴雪：游戏工作室，有多款经典游戏。
+盛大：游戏运营商，通过代理游戏起家然后并未制作出超越代理的游戏。
+腾讯：游戏运营商、游戏制作商
+网易：游戏运营商、游戏制作商
+SONY：游戏主机厂商。
+任天堂：游戏主机厂商的创始人。
+微软：跟SONY竞争的游戏主机厂商。</t>
   </si>
   <si>
     <t>阅读卧龙地产的两次并购</t>
@@ -356,14 +384,40 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
+    <t>配募方认购30731万股，配募价6.95元，认购资金：21.3580亿</t>
+  </si>
+  <si>
+    <t>换股方换股36651万股，换股价6.29元，资金：23.0535亿</t>
+  </si>
+  <si>
+    <t>总计：44亿装入35亿的上市公司，价值应该有79亿，但是并购后PE、PB均下降</t>
+  </si>
+  <si>
+    <t>市值只有67亿，所以结果是失败的。</t>
+  </si>
+  <si>
+    <t>墨麟股份公司100%股权的预估值约为401,525.00万元。</t>
+  </si>
+  <si>
+    <t>根据评估机构对墨麟股份预估值影响因素的敏感性分析，其区间为362,220.54万元~451,023.05万元。</t>
+  </si>
+  <si>
+    <t>经各方协商，标的公司100%股权作价初步确定为450,000.00万元，属于定价过高造成的失败。</t>
+  </si>
+  <si>
+    <t>另外墨麟主要做页游，市场增长萎缩，募集资金没有计划未来大力投入手游市场。</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>补偿义务人（陈默、深圳墨非、国墨天下）承诺墨麟股份2016年度、2017年度、2018年度实现的净利润</t>
+  </si>
+  <si>
+    <t>不低于36,000万元、45,000万元、56,250万元。净利润指经审计机构审计的标的公司归属于母公司所有者的净利润。</t>
+  </si>
+  <si>
+    <r>
       <t>7.</t>
     </r>
     <r>
@@ -378,6 +432,12 @@
     </r>
   </si>
   <si>
+    <t>游戏行业核心指标从财务来视角是：销售毛利率，运营视角是ARPU每用户平均收入。</t>
+  </si>
+  <si>
+    <t>用户视角是游戏要好玩，能够引领市场或者跟上市场的节奏，游戏制作精良。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -438,6 +498,15 @@
       </rPr>
       <t>股巨潮的借壳上市公告中获得相关信息）</t>
     </r>
+  </si>
+  <si>
+    <t>完美世界（002624）：每股美国存托股票20.2美元，估值10亿美元</t>
+  </si>
+  <si>
+    <t>巨人网络（002558）：每股/ADS12.00美元，估值30亿美元</t>
+  </si>
+  <si>
+    <t>盛大游戏：每股普通股3.55美元（每股美国存托股7.1美元），估值19亿美元</t>
   </si>
   <si>
     <r>
@@ -1133,23 +1202,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1240,59 +1302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,6 +1316,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1313,8 +1345,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1322,14 +1361,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,17 +1384,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1375,7 +1415,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1393,20 +1448,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1443,7 +1484,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,163 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,6 +1626,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1637,17 +1678,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,11 +1711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1694,23 +1744,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1726,189 +1761,205 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1971,6 +2022,137 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1031875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1031875" y="17995900"/>
+          <a:ext cx="6495415" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>462915</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1174750" y="15795625"/>
+          <a:ext cx="6114415" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1165225</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>491490</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1165225" y="16595725"/>
+          <a:ext cx="6152515" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2309,10 +2491,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80:I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2466,7 +2648,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" ht="140" customHeight="1" spans="2:8">
+    <row r="18" ht="189" customHeight="1" spans="2:8">
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
@@ -2477,10 +2659,26 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" ht="15" customHeight="1"/>
+    <row r="19" spans="2:8">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="14" t="s">
-        <v>12</v>
+      <c r="B21" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2488,248 +2686,330 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="9" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="9" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="9:9">
-      <c r="I38" s="1"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="9" t="s">
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="9" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1">
-        <v>2</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1">
-        <v>4</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1">
-        <v>5</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1">
-        <v>6</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1">
-        <v>7</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1">
-        <v>8</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1">
-        <v>9</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="2:8">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:8">
+      <c r="A41" s="1"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:8">
+      <c r="A42" s="1"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="2:8">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" customFormat="1" spans="1:8">
+      <c r="A44" s="1"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" customFormat="1" spans="1:8">
+      <c r="A45" s="1"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+    </row>
+    <row r="46" s="4" customFormat="1" spans="2:8">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" customFormat="1" spans="1:8">
+      <c r="A47" s="1"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+    </row>
+    <row r="48" s="4" customFormat="1" spans="2:8">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+    </row>
+    <row r="49" customFormat="1" spans="1:8">
+      <c r="A49" s="1"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+    </row>
+    <row r="50" customFormat="1" spans="1:8">
+      <c r="A50" s="1"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" s="4" customFormat="1" spans="2:8">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+    </row>
+    <row r="52" customFormat="1" spans="1:8">
+      <c r="A52" s="1"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+    </row>
+    <row r="53" customFormat="1" spans="1:8">
+      <c r="A53" s="1"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" s="4" customFormat="1" spans="2:8">
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -2738,95 +3018,676 @@
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="23"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="9" t="s">
+    <row r="55" customFormat="1" spans="1:8">
+      <c r="A55" s="1"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+    </row>
+    <row r="56" customFormat="1" spans="1:8">
+      <c r="A56" s="1"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+    </row>
+    <row r="57" s="4" customFormat="1" spans="2:8">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+    </row>
+    <row r="58" customFormat="1" spans="1:8">
+      <c r="A58" s="1"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+    </row>
+    <row r="59" customFormat="1" spans="1:8">
+      <c r="A59" s="1"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+    </row>
+    <row r="60" s="4" customFormat="1" spans="2:8">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+    </row>
+    <row r="61" customFormat="1" spans="1:8">
+      <c r="A61" s="1"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+    </row>
+    <row r="62" customFormat="1" spans="1:8">
+      <c r="A62" s="1"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+    </row>
+    <row r="63" s="4" customFormat="1" spans="2:8">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="26"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="14" t="s">
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="9" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="9" t="s">
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="1"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="9" t="s">
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="31"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="9:10">
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="26"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="26"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>2</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>3</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>4</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>5</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>6</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>7</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>8</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>9</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="30"/>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+    </row>
+    <row r="120" spans="9:9">
+      <c r="I120" s="1"/>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+    </row>
+    <row r="123" spans="9:10">
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="60">
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B80:I80"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="B84:I84"/>
+    <mergeCell ref="B85:I85"/>
     <mergeCell ref="B9:H10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" display="https://www.joudou.com/merger/68035.html"/>
-    <hyperlink ref="B23" r:id="rId2" display="https://www.joudou.com/merger/68140.html"/>
+    <hyperlink ref="B21" r:id="rId2" display="https://www.joudou.com/merger/68035.html"/>
+    <hyperlink ref="B22" r:id="rId3" display="https://www.joudou.com/merger/68140.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2848,7 +3709,7 @@
   <sheetData>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>3.2</v>
@@ -2856,10 +3717,10 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>2015</v>
@@ -2927,7 +3788,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>4.33</v>
@@ -2938,7 +3799,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <f>351389.71*10^6</f>
@@ -2951,7 +3812,7 @@
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:7">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F19">
         <f>F18*F17</f>
@@ -2964,7 +3825,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <f>(178841+308687-160212)*10^6</f>
@@ -2997,16 +3858,16 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -3026,22 +3887,22 @@
         <v>347363000000</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="3">
+        <v>60</v>
+      </c>
+      <c r="G25" s="2">
         <f>4.33*351389.71*10^6</f>
         <v>1521517444300</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <f>(178841+308687-160212)*10^6</f>
         <v>327316000000</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <f>G25/H25</f>
         <v>4.64846644924171</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>45</v>
+      <c r="J25" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="3:3">

--- a/金融资料/九斗数据/04/04.xlsx
+++ b/金融资料/九斗数据/04/04.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <r>
       <rPr>
@@ -418,6 +418,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>7.</t>
     </r>
     <r>
@@ -510,13 +517,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t>9.</t>
     </r>
     <r>
@@ -571,6 +571,33 @@
     </r>
   </si>
   <si>
+    <t>美股对于游戏公司给予极低估值水平，由于他们都属于内容开发商，自身不掌握用户，其业绩很大程度取决</t>
+  </si>
+  <si>
+    <t>一两款游戏的爆发性，业绩特点是不稳地，不可持续。游戏公司高度依赖于360、腾讯、UC、小米游戏中心、</t>
+  </si>
+  <si>
+    <t>顺网科技、华为游戏中心这些游戏平台商。</t>
+  </si>
+  <si>
+    <t>对于互联网公司特别是具有平台型特性的互联网公司，在中国市场基于人口红利可持续发展等因素能享受估值溢价。</t>
+  </si>
+  <si>
+    <t>按照DCF估值模型，中概股游戏公司的现金流不稳定，不可持续，寿命有限，折现率非常高，所以估值低。</t>
+  </si>
+  <si>
+    <t>互联网公司具有平台属性，现金流可持续性较强，只要做大规模就可以降低未来收益风险，折现率较低，所以估值高。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 附注：现金流折现（DCF）的原理是把企业未来产生的所有现金流全部折现到今天，看看它的价值是多少，然后和股价</t>
+  </si>
+  <si>
+    <t>进行比较，以判断是高估还是低估.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从上述计算公式我们可以看出该方法有两个基本的输入变量：现金流和折现率。因此在使用该方法前首先要对现金流做出合理的预测。在评估中要全面考虑影响企业未来获利能力的各种因素，客观、公正地对企业未来现金流做出合理预测。其次是选择合适的折现率。折现率的选择主要是根据评估人员对企业未来风险的判断。由于企业经营的不确定性是客观存在的，因此对企业未来收益风险的判断至关重要，当企业未来收益的风险较高时，折现率也应较高，当未来收益的风险较低时，折现率也应较低。 </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -591,6 +618,24 @@
       </rPr>
       <t>你认为游戏行业的核心竞争力是什么？</t>
     </r>
+  </si>
+  <si>
+    <t>游戏行业核心竞争力：</t>
+  </si>
+  <si>
+    <t>1.能够开创一个时代的创新性游戏制作大师，可遇不可求，时代造就英雄。</t>
+  </si>
+  <si>
+    <t>靠谱游戏制作工作室即可，需要对游戏细节的打磨和对玩家体验的重视，设计符合用户口味的游戏.</t>
+  </si>
+  <si>
+    <t>说简单点就是做的游戏要让用户觉得好玩。垃圾游戏到再好的平台推广都是亏钱的。</t>
+  </si>
+  <si>
+    <t>2.时机和方向选择，在合适的时机推出合适的产品。例如：PC端游，页游、手游、VR的普及属于时代背景。</t>
+  </si>
+  <si>
+    <t>3.具有高粘度的用户平台，可以放大游戏的运营效果，可以低成本快速累积用户。</t>
   </si>
   <si>
     <t>【附加题】:</t>
@@ -1202,11 +1247,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1308,22 +1353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -1353,6 +1382,60 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1369,40 +1452,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1414,26 +1474,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1457,7 +1502,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1478,13 +1523,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,13 +1571,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,91 +1613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,7 +1631,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,43 +1673,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,11 +1711,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1711,32 +1789,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1749,42 +1808,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1796,137 +1829,136 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1946,20 +1978,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2137,6 +2169,48 @@
         <a:xfrm>
           <a:off x="1165225" y="16595725"/>
           <a:ext cx="6152515" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>618490</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1187450" y="22672675"/>
+          <a:ext cx="4657090" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2491,10 +2565,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:I80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2510,1115 +2584,1354 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="4:4">
-      <c r="D1" s="5"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="3" ht="15.75" spans="2:8">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="2:8">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="2:8">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="2:8">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:8">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" ht="117" customHeight="1" spans="2:8">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" ht="277" customHeight="1" spans="2:8">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" ht="117" customHeight="1" spans="2:8">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" ht="189" customHeight="1" spans="2:8">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="24"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="2:8">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:8">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" customFormat="1" spans="1:8">
       <c r="A41" s="1"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" customFormat="1" spans="1:8">
       <c r="A42" s="1"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="2:8">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:8">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" customFormat="1" spans="1:8">
       <c r="A44" s="1"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" customFormat="1" spans="1:8">
       <c r="A45" s="1"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-    </row>
-    <row r="46" s="4" customFormat="1" spans="2:8">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:8">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" customFormat="1" spans="1:8">
       <c r="A47" s="1"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-    </row>
-    <row r="48" s="4" customFormat="1" spans="2:8">
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:8">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" customFormat="1" spans="1:8">
       <c r="A49" s="1"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" customFormat="1" spans="1:8">
       <c r="A50" s="1"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-    </row>
-    <row r="51" s="4" customFormat="1" spans="2:8">
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:8">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" customFormat="1" spans="1:8">
       <c r="A52" s="1"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
     </row>
     <row r="53" customFormat="1" spans="1:8">
       <c r="A53" s="1"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-    </row>
-    <row r="54" s="4" customFormat="1" spans="2:8">
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:8">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" customFormat="1" spans="1:8">
       <c r="A55" s="1"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="56" customFormat="1" spans="1:8">
       <c r="A56" s="1"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-    </row>
-    <row r="57" s="4" customFormat="1" spans="2:8">
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:8">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
     </row>
     <row r="58" customFormat="1" spans="1:8">
       <c r="A58" s="1"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
     </row>
     <row r="59" customFormat="1" spans="1:8">
       <c r="A59" s="1"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-    </row>
-    <row r="60" s="4" customFormat="1" spans="2:8">
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:8">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" customFormat="1" spans="1:8">
       <c r="A61" s="1"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
     </row>
     <row r="62" customFormat="1" spans="1:8">
       <c r="A62" s="1"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-    </row>
-    <row r="63" s="4" customFormat="1" spans="2:8">
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:8">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="26"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="24"/>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="31"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="28"/>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
+      <c r="B69" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
+      <c r="B70" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
+      <c r="B71" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
     </row>
     <row r="72" spans="2:9">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
+      <c r="B72" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
+      <c r="B74" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="26"/>
+      <c r="B77" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
+      <c r="B78" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="26"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+    </row>
+    <row r="86" spans="3:9">
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="26"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="1">
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="24"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="24"/>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="24"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
         <v>1</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1">
+      <c r="B105" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
         <v>2</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1">
+      <c r="B106" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
         <v>3</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="1">
+      <c r="B107" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
         <v>4</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="1">
+      <c r="B108" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
         <v>5</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1">
+      <c r="B109" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
         <v>6</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1">
+      <c r="B110" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
         <v>7</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1">
+      <c r="B111" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
         <v>8</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="1">
+      <c r="B112" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
         <v>9</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="30"/>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-    </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-    </row>
-    <row r="109" spans="2:8">
-      <c r="B109" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-    </row>
-    <row r="111" spans="2:8">
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-    </row>
-    <row r="112" spans="2:8">
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-    </row>
-    <row r="113" spans="2:8">
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-    </row>
-    <row r="115" spans="2:8">
-      <c r="B115" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-    </row>
-    <row r="120" spans="9:9">
-      <c r="I120" s="1"/>
-    </row>
-    <row r="122" spans="2:8">
-      <c r="B122" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-    </row>
-    <row r="123" spans="9:10">
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="B113" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="27"/>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+    </row>
+    <row r="134" spans="9:9">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+    </row>
+    <row r="137" spans="9:10">
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="68">
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B16:H16"/>
@@ -3666,19 +3979,27 @@
     <mergeCell ref="B70:I70"/>
     <mergeCell ref="B71:I71"/>
     <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="B77:I77"/>
     <mergeCell ref="B78:I78"/>
     <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B80:I80"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="B84:I84"/>
-    <mergeCell ref="B85:I85"/>
+    <mergeCell ref="B93:I93"/>
+    <mergeCell ref="B94:I94"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="B98:I98"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="C105:I105"/>
+    <mergeCell ref="C106:I106"/>
+    <mergeCell ref="C107:I107"/>
+    <mergeCell ref="C108:I108"/>
+    <mergeCell ref="C109:I109"/>
+    <mergeCell ref="C110:I110"/>
+    <mergeCell ref="C111:I111"/>
+    <mergeCell ref="C112:I112"/>
+    <mergeCell ref="C113:I113"/>
     <mergeCell ref="B9:H10"/>
+    <mergeCell ref="B87:I91"/>
+    <mergeCell ref="B118:K122"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B21" r:id="rId2" display="https://www.joudou.com/merger/68035.html"/>
@@ -3709,7 +4030,7 @@
   <sheetData>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F11">
         <v>3.2</v>
@@ -3717,10 +4038,10 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>2015</v>
@@ -3788,7 +4109,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F17">
         <v>4.33</v>
@@ -3799,7 +4120,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F18">
         <f>351389.71*10^6</f>
@@ -3812,7 +4133,7 @@
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:7">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F19">
         <f>F18*F17</f>
@@ -3825,7 +4146,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <f>(178841+308687-160212)*10^6</f>
@@ -3858,16 +4179,16 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -3887,7 +4208,7 @@
         <v>347363000000</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2">
         <f>4.33*351389.71*10^6</f>
@@ -3902,7 +4223,7 @@
         <v>4.64846644924171</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="3:3">

--- a/金融资料/九斗数据/04/04.xlsx
+++ b/金融资料/九斗数据/04/04.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <r>
       <rPr>
@@ -517,6 +517,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>9.</t>
     </r>
     <r>
@@ -775,6 +782,9 @@
     </r>
   </si>
   <si>
+    <t>2015年12月15日，最高收盘价：62.97元，2018年4月20日收盘：26.99元，涨跌幅：-57.14%</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -807,6 +817,9 @@
     </r>
   </si>
   <si>
+    <t>2015年12月28日，最高收盘价：41.35元，2018年4月20日收盘：34.48元，涨跌幅：-16.61%</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -839,6 +852,9 @@
     </r>
   </si>
   <si>
+    <t>2015年07月01日，最高收盘价：31.93元，2018年4月20日收盘：33.90元，涨跌幅：  6.17%</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -871,6 +887,9 @@
     </r>
   </si>
   <si>
+    <t>2015年05月21日，最高收盘价：32.45元，2018年4月20日收盘：14.83元，涨跌幅：-54.3%</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -903,6 +922,9 @@
     </r>
   </si>
   <si>
+    <t>2015年12月26日，最高收盘价：60.29元，2018年4月20日收盘：21.95元，涨跌幅：-63.59%</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -935,6 +957,9 @@
     </r>
   </si>
   <si>
+    <t>2015年06月12日，最高收盘价：33.20元，2018年4月20日收盘：14.92元，涨跌幅：-55.06%</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -957,6 +982,9 @@
     </r>
   </si>
   <si>
+    <t>2015年06月11日，最高收盘价：50.54元，2018年4月20日收盘：20.35元，涨跌幅：-59.73%</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -989,6 +1017,9 @@
     </r>
   </si>
   <si>
+    <t>2015年05月21日，最高收盘价：21.95元，2018年4月20日收盘： 5.77元 ，涨跌幅：-73.71%</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -997,7 +1028,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>中青旅（</t>
+      <t>中青宝（</t>
     </r>
     <r>
       <rPr>
@@ -1007,7 +1038,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>600138</t>
+      <t>300052</t>
     </r>
     <r>
       <rPr>
@@ -1021,11 +1052,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
+    <t>2015年06月11日，最高收盘价：48.38元，2018年4月20日收盘：13.5元，涨跌幅：-72.1%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
@@ -1035,7 +1068,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1046,6 +1078,21 @@
     <t>收购（包括大股东收购游戏资产）的公告时点</t>
   </si>
   <si>
+    <t>世纪华通收购游戏公司有业绩承诺补偿协议。“本次交易，经追加调整后，趣点投资作为第一顺位补偿主体，鼎通投资作为
+第二顺位补偿主体，第一、第二顺位补偿主体合计承诺补偿金额达 24 亿元。在
+较差情形下（按实现净利润完成承诺净利润的 50%测算），2016 年、2017 年业绩
+补偿覆盖比例达 100%，2018 年业绩补偿覆盖比例达 69.17%。+”
+2013年10月17日公告：002602 世纪华通收购资产停牌公告
+2014年1月22日公告：002602 世纪华通发行股份及支付现金购买资产并募集配套资金暨关联交易预案
+2014-06-25 世纪华通：关于中国证监会上市公司并购重组委员会审核公司重大资产重组事项的停牌公告
+2014-07-29 世纪华通：发行股份及支付现金购买资产并募集配套资金暨关联交易报告书的修订说明公告
+2015-12-08 世纪华通：发行股份及支付现金购买资产并募集配套资金暨关联交易预案（修订稿）
+2016-12-07 世纪华通：发行股份及支付现金购买资产之业绩承诺补偿协议之补充协议
+2016-12-26 世纪华通：关于中国证监会并购重组审核委员会审核意见的回复
+2017-01-07 世纪华通：关于收到控股股东及大股东拟收购游戏资产通知函的公告</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1108,6 +1155,70 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">营收2017Q1：68%，2017Q2：7.9%，2017Q3：4.4%，2017Q4：31% </t>
+  </si>
+  <si>
+    <t>净利2017Q1：128.5%，2017Q2：2%，2017Q3：16.5%，2017Q4：-9.3% ，2018Q1：2.5%</t>
+  </si>
+  <si>
+    <t>PE：42.8，营收、净利润增速明显下滑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">营收2017Q1：2.8%，2017Q2：-10.3%，2017Q3：-1.8%，2017Q4：12.7% </t>
+  </si>
+  <si>
+    <t>净利2017Q1：3%，2017Q2：221.7%，2017Q3：-18.2%，2017Q4：-38.6% ，2018Q1：123.8%</t>
+  </si>
+  <si>
+    <t>PE：52.7，营收、净利润增速上下起伏不稳定，最近半年增长</t>
+  </si>
+  <si>
+    <t>营收2017Q1：95.2%，2017Q2： 47.7%，2017Q3： 35.6%，2017Q4： -8.1% ,2018Q1：-5.6%</t>
+  </si>
+  <si>
+    <t>净利2017Q1： 63.3%，2017Q2： 89.1%，2017Q3： 21.4%，2017Q4：-5.0% ，2018Q1：10.7 %</t>
+  </si>
+  <si>
+    <t>PE：29.5，营收、净利润增速下滑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">营收2017Q1： 36.3%，2017Q2：17.7%，2017Q3：11.8 %，2017Q4：9.1% </t>
+  </si>
+  <si>
+    <t>净利2017Q1：105 %，2017Q2： 52%，2017Q3： 35.5%，2017Q4：28.7 %</t>
+  </si>
+  <si>
+    <t>PE： 19.9 ，营收、净利润增速下滑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">营收2017Q1：62.6 %，2017Q2：26.4 %，2017Q3：51.1 %，2017Q4：31.7 % </t>
+  </si>
+  <si>
+    <t>净利2017Q1： 98.2%，2017Q2：30.8 %，2017Q3： -22.9%，2017Q4：994.4% ，2018Q1：10.0%</t>
+  </si>
+  <si>
+    <t>PE：25.3    ，营收、净利润增速下滑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">营收2017Q1：5.7 %，2017Q2：-3.9 %，2017Q3：15.8 %，2017Q4：39.8 % </t>
+  </si>
+  <si>
+    <t>净利2017Q1：101.5 %，2017Q2：45.2 %，2017Q3：244.8 %，2017Q4：122.6 %</t>
+  </si>
+  <si>
+    <t>PE： 13.8   ，营收、净利润增速上下起伏</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游族网络（</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1116,6 +1227,55 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
+      <t>002174</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">营收2017Q1：101 %，2017Q2：37.9 %，2017Q3：2.7 %，2017Q4：2.8 % </t>
+  </si>
+  <si>
+    <t>净利2017Q1： 86.7%，2017Q2：7.6 %，2017Q3：-5.2 %，2017Q4：-13.4 %</t>
+  </si>
+  <si>
+    <t>PE：28.6    ，营收、净利润增速下滑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">营收2017Q1：-10.2 %，2017Q2：-16.9 %，2017Q3：12.6 %，2017Q4：-2.1 % </t>
+  </si>
+  <si>
+    <t>净利2017Q1：-26.9 %，2017Q2：-46.6 %，2017Q3：-9.9 %，2017Q4：-138.2 % ，2018Q1： -24.3%</t>
+  </si>
+  <si>
+    <t>PE： 68.6 ，营收、净利润增速断崖式下滑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">营收2017Q1：11.6 %，2017Q2：26.2 %，2017Q3：-28.4 %，2017Q4：-44.5 % </t>
+  </si>
+  <si>
+    <t>净利2017Q1： -4.3%，2017Q2：100.4 %，2017Q3：2.6 %，2017Q4：161.8 % ，2018Q1：355 %</t>
+  </si>
+  <si>
+    <t>PE：59.1    ，营收下滑、净利润暴增</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>4.</t>
     </r>
     <r>
@@ -1150,6 +1310,12 @@
     </r>
   </si>
   <si>
+    <t>掌趣科技获得腾讯投资后，营收、净利润增速断崖式下滑，说明手游行业到了拐点</t>
+  </si>
+  <si>
+    <t>世纪华通收购游戏公司有业绩承诺补偿协议，保证了业绩利润增速虽然不稳定，但是没有断崖式下滑。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1210,6 +1376,9 @@
       </rPr>
       <t>，发生了什么变化？</t>
     </r>
+  </si>
+  <si>
+    <t>中国游戏厂商出海，端游转手游红利到了拐点，手机+VR开始兴起</t>
   </si>
   <si>
     <t>日期</t>
@@ -1247,13 +1416,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1515,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1353,8 +1547,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,6 +1562,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1383,15 +1579,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1399,29 +1587,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1452,6 +1617,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1463,22 +1666,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1523,7 +1710,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,25 +1746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,13 +1758,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,19 +1788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,31 +1806,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,19 +1830,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,41 +1860,195 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1734,90 +2075,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1826,135 +2093,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1986,12 +2253,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2565,10 +2866,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155:K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3237,7 +3538,7 @@
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="28"/>
+      <c r="I68" s="37"/>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="18" t="s">
@@ -3615,186 +3916,216 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
+        <v>63</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>8</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1">
         <v>9</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="B112" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="25"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
       <c r="E113" s="25"/>
       <c r="F113" s="25"/>
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-    </row>
-    <row r="114" spans="2:8">
+    </row>
+    <row r="114" spans="2:2">
       <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="27"/>
-    </row>
-    <row r="116" spans="2:8">
-      <c r="B116" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-    </row>
-    <row r="117" spans="2:8">
-      <c r="B117" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-    </row>
-    <row r="118" spans="2:11">
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="38"/>
+      <c r="J115" s="38"/>
+      <c r="K115" s="38"/>
+      <c r="L115" s="38"/>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="38"/>
+      <c r="L116" s="38"/>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+    </row>
+    <row r="118" ht="26" customHeight="1" spans="2:11">
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -3806,7 +4137,7 @@
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" ht="31" customHeight="1" spans="2:11">
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -3818,7 +4149,7 @@
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" ht="34" customHeight="1" spans="2:11">
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -3830,7 +4161,7 @@
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="2:11">
+    <row r="121" ht="59" customHeight="1" spans="2:11">
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
@@ -3842,7 +4173,7 @@
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" ht="50" customHeight="1" spans="2:11">
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
@@ -3854,84 +4185,494 @@
       <c r="J122" s="10"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="2:8">
-      <c r="B123" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-    </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-    </row>
-    <row r="125" spans="2:8">
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-    </row>
-    <row r="126" spans="2:8">
-      <c r="B126" s="27"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-    </row>
-    <row r="127" spans="2:8">
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-    </row>
-    <row r="129" spans="2:8">
-      <c r="B129" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-    </row>
-    <row r="134" spans="9:9">
-      <c r="I134" s="1"/>
-    </row>
-    <row r="136" spans="2:8">
-      <c r="B136" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-    </row>
-    <row r="137" spans="9:10">
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+    <row r="123" spans="2:12">
+      <c r="B123" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>1</v>
+      </c>
+      <c r="B125" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
+      <c r="K125" s="39"/>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="31"/>
+      <c r="C126" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="40"/>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="33"/>
+      <c r="C127" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="41"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>2</v>
+      </c>
+      <c r="B128" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="42"/>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="31"/>
+      <c r="C129" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43"/>
+      <c r="K129" s="44"/>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="33"/>
+      <c r="C130" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="34"/>
+      <c r="J130" s="34"/>
+      <c r="K130" s="41"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>3</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C131" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="42"/>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="31"/>
+      <c r="C132" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="44"/>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="33"/>
+      <c r="C133" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="41"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>4</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="42"/>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" s="31"/>
+      <c r="C135" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D135" s="43"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="43"/>
+      <c r="H135" s="43"/>
+      <c r="I135" s="43"/>
+      <c r="J135" s="43"/>
+      <c r="K135" s="44"/>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="33"/>
+      <c r="C136" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="34"/>
+      <c r="J136" s="34"/>
+      <c r="K136" s="41"/>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>5</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="42"/>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="31"/>
+      <c r="C138" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D138" s="43"/>
+      <c r="E138" s="43"/>
+      <c r="F138" s="43"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="43"/>
+      <c r="K138" s="44"/>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="33"/>
+      <c r="C139" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="34"/>
+      <c r="K139" s="41"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>6</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="42"/>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="31"/>
+      <c r="C141" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D141" s="43"/>
+      <c r="E141" s="43"/>
+      <c r="F141" s="43"/>
+      <c r="G141" s="43"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
+      <c r="J141" s="43"/>
+      <c r="K141" s="44"/>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="33"/>
+      <c r="C142" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="34"/>
+      <c r="K142" s="41"/>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>7</v>
+      </c>
+      <c r="B143" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D143" s="36"/>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="42"/>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="31"/>
+      <c r="C144" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" s="43"/>
+      <c r="E144" s="43"/>
+      <c r="F144" s="43"/>
+      <c r="G144" s="43"/>
+      <c r="H144" s="43"/>
+      <c r="I144" s="43"/>
+      <c r="J144" s="43"/>
+      <c r="K144" s="44"/>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="33"/>
+      <c r="C145" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D145" s="34"/>
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="34"/>
+      <c r="J145" s="34"/>
+      <c r="K145" s="41"/>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1">
+        <v>8</v>
+      </c>
+      <c r="B146" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D146" s="36"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="36"/>
+      <c r="K146" s="42"/>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="31"/>
+      <c r="C147" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D147" s="43"/>
+      <c r="E147" s="43"/>
+      <c r="F147" s="43"/>
+      <c r="G147" s="43"/>
+      <c r="H147" s="43"/>
+      <c r="I147" s="43"/>
+      <c r="J147" s="43"/>
+      <c r="K147" s="44"/>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="33"/>
+      <c r="C148" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="34"/>
+      <c r="K148" s="41"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1">
+        <v>9</v>
+      </c>
+      <c r="B149" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C149" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D149" s="36"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="42"/>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="31"/>
+      <c r="C150" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="43"/>
+      <c r="G150" s="43"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="43"/>
+      <c r="J150" s="43"/>
+      <c r="K150" s="44"/>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="33"/>
+      <c r="C151" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D151" s="34"/>
+      <c r="E151" s="34"/>
+      <c r="F151" s="34"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="34"/>
+      <c r="I151" s="34"/>
+      <c r="J151" s="34"/>
+      <c r="K151" s="41"/>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="155" ht="14" customHeight="1" spans="2:11">
+      <c r="B155" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="96">
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B16:H16"/>
@@ -3988,6 +4729,7 @@
     <mergeCell ref="B97:I97"/>
     <mergeCell ref="B98:I98"/>
     <mergeCell ref="B99:I99"/>
+    <mergeCell ref="C104:I104"/>
     <mergeCell ref="C105:I105"/>
     <mergeCell ref="C106:I106"/>
     <mergeCell ref="C107:I107"/>
@@ -3996,10 +4738,37 @@
     <mergeCell ref="C110:I110"/>
     <mergeCell ref="C111:I111"/>
     <mergeCell ref="C112:I112"/>
-    <mergeCell ref="C113:I113"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="C126:K126"/>
+    <mergeCell ref="C127:K127"/>
+    <mergeCell ref="C128:K128"/>
+    <mergeCell ref="C129:K129"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C132:K132"/>
+    <mergeCell ref="C133:K133"/>
+    <mergeCell ref="C134:K134"/>
+    <mergeCell ref="C135:K135"/>
+    <mergeCell ref="C136:K136"/>
+    <mergeCell ref="C137:K137"/>
+    <mergeCell ref="C138:K138"/>
+    <mergeCell ref="C139:K139"/>
+    <mergeCell ref="C140:K140"/>
+    <mergeCell ref="C141:K141"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="C143:K143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="C145:K145"/>
+    <mergeCell ref="C146:K146"/>
+    <mergeCell ref="C147:K147"/>
+    <mergeCell ref="C148:K148"/>
+    <mergeCell ref="C149:K149"/>
+    <mergeCell ref="C150:K150"/>
+    <mergeCell ref="C151:K151"/>
+    <mergeCell ref="B155:K155"/>
     <mergeCell ref="B9:H10"/>
     <mergeCell ref="B87:I91"/>
-    <mergeCell ref="B118:K122"/>
+    <mergeCell ref="B117:K122"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B21" r:id="rId2" display="https://www.joudou.com/merger/68035.html"/>
@@ -4030,7 +4799,7 @@
   <sheetData>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F11">
         <v>3.2</v>
@@ -4038,10 +4807,10 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D12">
         <v>2015</v>
@@ -4109,7 +4878,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>4.33</v>
@@ -4120,7 +4889,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F18">
         <f>351389.71*10^6</f>
@@ -4133,7 +4902,7 @@
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:7">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F19">
         <f>F18*F17</f>
@@ -4146,7 +4915,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F20">
         <f>(178841+308687-160212)*10^6</f>
@@ -4179,16 +4948,16 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -4208,7 +4977,7 @@
         <v>347363000000</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2">
         <f>4.33*351389.71*10^6</f>
@@ -4223,7 +4992,7 @@
         <v>4.64846644924171</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="3:3">
